--- a/fuentes/contenidos/grado09/guion02/SolicitudGrafica_CN_09_02_CO_REC200.xlsx
+++ b/fuentes/contenidos/grado09/guion02/SolicitudGrafica_CN_09_02_CO_REC200.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magda\Desktop\2015\PLANETA\REC_CN_09_02_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
@@ -16,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="206">
   <si>
     <t>Fecha:</t>
   </si>
@@ -594,52 +599,52 @@
     <t>Fotografía</t>
   </si>
   <si>
+    <t>Investigadores en el laboratorio</t>
+  </si>
+  <si>
+    <t>Humano y chimpancé en juego de ajedrez</t>
+  </si>
+  <si>
+    <t>E coli vista al microscopío</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drosophila melanogaster sobre fondo naranja </t>
+  </si>
+  <si>
+    <t>Ratón casero Mus musculus</t>
+  </si>
+  <si>
+    <t>Fragmentos de ADN dentro de una esfera</t>
+  </si>
+  <si>
+    <t>Grupo de científicos reunidos</t>
+  </si>
+  <si>
+    <t>CN_09_02_CO_REC200</t>
+  </si>
+  <si>
+    <t>http://losdeabajoalaizquierda.blogspot.com.co/2013/09/que-son-los-genes.html</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Dejar en la imagen solamente los textos presentes en rojo y en naranja; los que se encuentran en color negro se eliminan, al igual que las flechas que llevan a estos últimos. Eliminar también la flecha circular que lleva a DNA. Modificar DNA por ADN, RNA por ARN (en todos los casos) y new proteins por Nuevas proteínas.</t>
+  </si>
+  <si>
+    <t>284633849 Y 302723213</t>
+  </si>
+  <si>
+    <t>Iustrar lo que se presenta aquí</t>
+  </si>
+  <si>
     <t>Mujer científica señalando un modelo de la moléculas de ADN</t>
   </si>
   <si>
     <t>Mujer trabajando en el laboratorio de biología molecular. Se observa además una molécula de ADN</t>
   </si>
   <si>
-    <t>Investigadores en el laboratorio</t>
-  </si>
-  <si>
     <t>Mano sosteniendo dólares</t>
-  </si>
-  <si>
-    <t>Humano y chimpancé en juego de ajedrez</t>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae en plato petri con agar</t>
-  </si>
-  <si>
-    <t>E coli vista al microscopío</t>
-  </si>
-  <si>
-    <t>Ilustración de C elegans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drosophila melanogaster sobre fondo naranja </t>
-  </si>
-  <si>
-    <t>Ratón casero Mus musculus</t>
-  </si>
-  <si>
-    <t>Fragmentos de ADN dentro de una esfera</t>
-  </si>
-  <si>
-    <t>Grupo de científicos reunidos</t>
-  </si>
-  <si>
-    <t>Ilustración de un ARN de transferencia</t>
-  </si>
-  <si>
-    <t>Escribir al lado de la ilustración el texto: ARN de transferencia</t>
-  </si>
-  <si>
-    <t>Grupo de gente ubicada formando una cadena similar al ADN.</t>
-  </si>
-  <si>
-    <t>CN_09_02_CO_REC200</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1363,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1549,10 +1554,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1785,7 +1786,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1801,6 +1802,174 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181841</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2459182</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1636568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="56686" t="27409" r="15438" b="39922"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13889182" y="5879522"/>
+          <a:ext cx="2277341" cy="1506682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441614</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2182091</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1108363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="14950" t="34330" r="62936" b="32448"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14148955" y="7723910"/>
+          <a:ext cx="1740477" cy="969817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1203612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2519795</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1835727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13802591" y="8788976"/>
+          <a:ext cx="2424545" cy="632115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Esquema que incluye términos asociados a la definición moderna de gen.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1828,7 +1997,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1836,6 +2005,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1869,7 +2052,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1877,6 +2060,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1910,7 +2107,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1918,6 +2115,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1951,7 +2162,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1959,6 +2170,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1992,7 +2217,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2000,6 +2225,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2033,7 +2272,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2041,6 +2280,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2074,7 +2327,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2082,6 +2335,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2417,9 +2684,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2465,14 +2732,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="85"/>
+      <c r="F2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2496,14 +2763,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="86">
         <v>9</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80">
+      <c r="D3" s="87"/>
+      <c r="F3" s="79">
         <v>42337</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2527,10 +2794,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2559,10 +2826,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2616,8 +2883,8 @@
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>205</v>
+      <c r="C7" s="73" t="s">
+        <v>197</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2646,12 +2913,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2742,7 +3009,7 @@
         <v/>
       </c>
       <c r="J10" s="63" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2785,7 +3052,7 @@
         <v/>
       </c>
       <c r="J11" s="64" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -2828,7 +3095,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -2871,7 +3138,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -2914,7 +3181,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J14" s="66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -2928,7 +3195,7 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="62">
-        <v>99733508</v>
+        <v>78675937</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
@@ -2957,7 +3224,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
@@ -2971,7 +3238,7 @@
         <v>IMG07</v>
       </c>
       <c r="B16" s="62">
-        <v>213325696</v>
+        <v>14703082</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3000,7 +3267,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
@@ -3014,7 +3281,7 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="62">
-        <v>78675937</v>
+        <v>247628536</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3042,8 +3309,8 @@
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J17" s="66" t="s">
-        <v>196</v>
+      <c r="J17" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
@@ -3057,7 +3324,7 @@
         <v>IMG09</v>
       </c>
       <c r="B18" s="62">
-        <v>167561036</v>
+        <v>244019515</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3086,7 +3353,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
@@ -3100,7 +3367,7 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="62">
-        <v>14703082</v>
+        <v>245572066</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3128,8 +3395,8 @@
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J19" s="67" t="s">
-        <v>198</v>
+      <c r="J19" s="63" t="s">
+        <v>196</v>
       </c>
       <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
@@ -3137,20 +3404,20 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
-      <c r="B20" s="62">
-        <v>247628536</v>
+      <c r="B20" s="62" t="s">
+        <v>201</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>155</v>
@@ -3172,28 +3439,28 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="K20" s="66"/>
+        <v>202</v>
+      </c>
+      <c r="K20" s="64"/>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
-      <c r="B21" s="62">
-        <v>244019515</v>
+      <c r="B21" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>155</v>
@@ -3214,140 +3481,114 @@
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="63"/>
+      <c r="K21" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="K21" s="66"/>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG13</v>
-      </c>
-      <c r="B22" s="62">
-        <v>245572066</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B22" s="62"/>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F6</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>CN_09_02_CO_REC200_IMG13n.jpg</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>320 x 480 px</v>
+        <v/>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_09_02_CO_REC200_IMG13a.jpg</v>
+        <v/>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 458 px</v>
-      </c>
-      <c r="J22" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="K22" s="69"/>
+        <v/>
+      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG14</v>
-      </c>
-      <c r="B23" s="62">
-        <v>141625411</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B23" s="62"/>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F6</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>CN_09_02_CO_REC200_IMG14n.jpg</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>320 x 480 px</v>
+        <v/>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_09_02_CO_REC200_IMG14a.jpg</v>
+        <v/>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 458 px</v>
-      </c>
-      <c r="J23" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="K23" s="64" t="s">
-        <v>203</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG15</v>
-      </c>
-      <c r="B24" s="62">
-        <v>23685008</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B24" s="62"/>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F6</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>CN_09_02_CO_REC200_IMG15n.jpg</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>320 x 480 px</v>
+        <v/>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_09_02_CO_REC200_IMG15a.jpg</v>
+        <v/>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 458 px</v>
-      </c>
-      <c r="J24" s="63" t="s">
-        <v>204</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J24" s="63"/>
       <c r="K24" s="65"/>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
@@ -3758,7 +3999,7 @@
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="70"/>
+      <c r="J37" s="69"/>
       <c r="K37" s="65"/>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3789,7 +4030,7 @@
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="71"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="65"/>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6004,6 +6245,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6028,25 +6270,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6054,11 +6296,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6109,11 +6351,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6158,12 +6400,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6257,14 +6499,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6297,12 +6539,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6342,12 +6584,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="98" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6363,12 +6605,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6759,40 +7001,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
@@ -7056,7 +7298,7 @@
       <c r="B12" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="42" t="s">
@@ -7130,29 +7372,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76" t="s">
+      <c r="G15" s="74"/>
+      <c r="H15" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="77" t="s">
+      <c r="I15" s="74"/>
+      <c r="J15" s="76" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7307,7 +7549,7 @@
       <c r="H21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7384,7 +7626,7 @@
         <v>176</v>
       </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
